--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H2">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>774.4604445322882</v>
+        <v>797.38442695652</v>
       </c>
       <c r="R2">
-        <v>6970.144000790593</v>
+        <v>7176.45984260868</v>
       </c>
       <c r="S2">
-        <v>0.11305901503796</v>
+        <v>0.1189059566201247</v>
       </c>
       <c r="T2">
-        <v>0.11305901503796</v>
+        <v>0.1189059566201248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H3">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>65.92630500979912</v>
+        <v>64.287759390848</v>
       </c>
       <c r="R3">
-        <v>593.3367450881921</v>
+        <v>578.589834517632</v>
       </c>
       <c r="S3">
-        <v>0.009624201161108199</v>
+        <v>0.009586589944463529</v>
       </c>
       <c r="T3">
-        <v>0.009624201161108197</v>
+        <v>0.009586589944463529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H4">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>12.93642530511689</v>
+        <v>20.237454393172</v>
       </c>
       <c r="R4">
-        <v>116.427827746052</v>
+        <v>182.137089538548</v>
       </c>
       <c r="S4">
-        <v>0.001888514143536327</v>
+        <v>0.003017808967452379</v>
       </c>
       <c r="T4">
-        <v>0.001888514143536327</v>
+        <v>0.00301780896745238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H5">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>5.260626046378</v>
+        <v>3.526938872228</v>
       </c>
       <c r="R5">
-        <v>47.345634417402</v>
+        <v>31.74244985005199</v>
       </c>
       <c r="S5">
-        <v>0.0007679684656402594</v>
+        <v>0.0005259370842538939</v>
       </c>
       <c r="T5">
-        <v>0.0007679684656402593</v>
+        <v>0.000525937084253894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H6">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>13.16217719762334</v>
+        <v>34.968373606984</v>
       </c>
       <c r="R6">
-        <v>118.45959477861</v>
+        <v>314.715362462856</v>
       </c>
       <c r="S6">
-        <v>0.001921470360719437</v>
+        <v>0.005214483471991709</v>
       </c>
       <c r="T6">
-        <v>0.001921470360719437</v>
+        <v>0.005214483471991709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>1090.197042895872</v>
+        <v>1151.07588058528</v>
       </c>
       <c r="R7">
-        <v>9811.773386062847</v>
+        <v>10359.68292526752</v>
       </c>
       <c r="S7">
-        <v>0.1591515806098283</v>
+        <v>0.1716484221365518</v>
       </c>
       <c r="T7">
-        <v>0.1591515806098283</v>
+        <v>0.1716484221365518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
-        <v>92.80352957747198</v>
+        <v>92.80352957747201</v>
       </c>
       <c r="R8">
-        <v>835.2317661972478</v>
+        <v>835.231766197248</v>
       </c>
       <c r="S8">
-        <v>0.01354785221136977</v>
+        <v>0.01383886126827388</v>
       </c>
       <c r="T8">
-        <v>0.01354785221136977</v>
+        <v>0.01383886126827388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>18.210423415232</v>
+        <v>29.214071467808</v>
       </c>
       <c r="R9">
-        <v>163.893810737088</v>
+        <v>262.9266432102721</v>
       </c>
       <c r="S9">
-        <v>0.002658434719663075</v>
+        <v>0.00435640200286708</v>
       </c>
       <c r="T9">
-        <v>0.002658434719663075</v>
+        <v>0.00435640200286708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>7.405309076831998</v>
+        <v>5.091363877792</v>
       </c>
       <c r="R10">
-        <v>66.64778169148799</v>
+        <v>45.822274900128</v>
       </c>
       <c r="S10">
-        <v>0.00108105837578821</v>
+        <v>0.0007592241231756797</v>
       </c>
       <c r="T10">
-        <v>0.00108105837578821</v>
+        <v>0.0007592241231756796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>18.52821116976</v>
+        <v>50.479104032576</v>
       </c>
       <c r="R11">
-        <v>166.75390052784</v>
+        <v>454.311936293184</v>
       </c>
       <c r="S11">
-        <v>0.00270482672169716</v>
+        <v>0.007527443415505204</v>
       </c>
       <c r="T11">
-        <v>0.00270482672169716</v>
+        <v>0.007527443415505203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H12">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>1762.241596708416</v>
+        <v>2000.469018750814</v>
       </c>
       <c r="R12">
-        <v>15860.17437037575</v>
+        <v>18004.22116875733</v>
       </c>
       <c r="S12">
-        <v>0.2572594902546622</v>
+        <v>0.2983099171768229</v>
       </c>
       <c r="T12">
-        <v>0.2572594902546622</v>
+        <v>0.2983099171768229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H13">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>150.0116343265493</v>
+        <v>161.2844026025991</v>
       </c>
       <c r="R13">
-        <v>1350.104708938944</v>
+        <v>1451.559623423392</v>
       </c>
       <c r="S13">
-        <v>0.02189933358241025</v>
+        <v>0.02405072826988269</v>
       </c>
       <c r="T13">
-        <v>0.02189933358241024</v>
+        <v>0.02405072826988269</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H14">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>29.43611509966267</v>
+        <v>50.77149636147923</v>
       </c>
       <c r="R14">
-        <v>264.925035896964</v>
+        <v>456.943467253313</v>
       </c>
       <c r="S14">
-        <v>0.004297208725387828</v>
+        <v>0.007571044956244247</v>
       </c>
       <c r="T14">
-        <v>0.004297208725387826</v>
+        <v>0.007571044956244249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H15">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>11.970261501546</v>
+        <v>8.848344294670778</v>
       </c>
       <c r="R15">
-        <v>107.732353513914</v>
+        <v>79.63509865203699</v>
       </c>
       <c r="S15">
-        <v>0.001747469460404676</v>
+        <v>0.00131946499993462</v>
       </c>
       <c r="T15">
-        <v>0.001747469460404676</v>
+        <v>0.00131946499993462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H16">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>29.94980095453</v>
+        <v>87.72825963490955</v>
       </c>
       <c r="R16">
-        <v>269.54820859077</v>
+        <v>789.554336714186</v>
       </c>
       <c r="S16">
-        <v>0.004372198761612734</v>
+        <v>0.01308203707253541</v>
       </c>
       <c r="T16">
-        <v>0.004372198761612733</v>
+        <v>0.01308203707253541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H17">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I17">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J17">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N17">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O17">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P17">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q17">
-        <v>387.4899301622081</v>
+        <v>440.6198131712289</v>
       </c>
       <c r="R17">
-        <v>3487.409371459873</v>
+        <v>3965.57831854106</v>
       </c>
       <c r="S17">
-        <v>0.05656742077734443</v>
+        <v>0.06570522149633412</v>
       </c>
       <c r="T17">
-        <v>0.05656742077734443</v>
+        <v>0.06570522149633413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H18">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I18">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J18">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P18">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q18">
-        <v>32.98526026016356</v>
+        <v>35.52422090823821</v>
       </c>
       <c r="R18">
-        <v>296.867342341472</v>
+        <v>319.717988174144</v>
       </c>
       <c r="S18">
-        <v>0.004815327964279754</v>
+        <v>0.005297371415191975</v>
       </c>
       <c r="T18">
-        <v>0.004815327964279754</v>
+        <v>0.005297371415191975</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H19">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I19">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J19">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N19">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q19">
-        <v>6.472550758942445</v>
+        <v>11.18284113951844</v>
       </c>
       <c r="R19">
-        <v>58.25295683048201</v>
+        <v>100.645570255666</v>
       </c>
       <c r="S19">
-        <v>0.0009448903669072084</v>
+        <v>0.001667585142715401</v>
       </c>
       <c r="T19">
-        <v>0.0009448903669072084</v>
+        <v>0.001667585142715401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H20">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I20">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J20">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N20">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O20">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P20">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q20">
-        <v>2.632077123773</v>
+        <v>1.948920864781555</v>
       </c>
       <c r="R20">
-        <v>23.688694113957</v>
+        <v>17.540287783034</v>
       </c>
       <c r="S20">
-        <v>0.0003842417636932208</v>
+        <v>0.0002906230570469968</v>
       </c>
       <c r="T20">
-        <v>0.0003842417636932208</v>
+        <v>0.0002906230570469968</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H21">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I21">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J21">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N21">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q21">
-        <v>6.585502408931667</v>
+        <v>19.32287329013911</v>
       </c>
       <c r="R21">
-        <v>59.26952168038501</v>
+        <v>173.905859611252</v>
       </c>
       <c r="S21">
-        <v>0.0009613795270507016</v>
+        <v>0.002881426643837292</v>
       </c>
       <c r="T21">
-        <v>0.0009613795270507016</v>
+        <v>0.002881426643837292</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H22">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N22">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O22">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P22">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q22">
-        <v>2071.209991192352</v>
+        <v>1420.14061007611</v>
       </c>
       <c r="R22">
-        <v>18640.88992073117</v>
+        <v>12781.26549068499</v>
       </c>
       <c r="S22">
-        <v>0.3023640047651606</v>
+        <v>0.2117713515182499</v>
       </c>
       <c r="T22">
-        <v>0.3023640047651606</v>
+        <v>0.2117713515182499</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H23">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.067552</v>
       </c>
       <c r="O23">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P23">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q23">
-        <v>176.3127123957298</v>
+        <v>114.496414471264</v>
       </c>
       <c r="R23">
-        <v>1586.814411561568</v>
+        <v>1030.467730241376</v>
       </c>
       <c r="S23">
-        <v>0.0257388763272096</v>
+        <v>0.01707370401531845</v>
       </c>
       <c r="T23">
-        <v>0.02573887632720959</v>
+        <v>0.01707370401531846</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H24">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N24">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O24">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P24">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q24">
-        <v>34.59705854758422</v>
+        <v>36.04287951547101</v>
       </c>
       <c r="R24">
-        <v>311.3735269282579</v>
+        <v>324.385915639239</v>
       </c>
       <c r="S24">
-        <v>0.005050625103213303</v>
+        <v>0.00537471378076546</v>
       </c>
       <c r="T24">
-        <v>0.005050625103213302</v>
+        <v>0.005374713780765462</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H25">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N25">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O25">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P25">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q25">
-        <v>14.068970602837</v>
+        <v>6.281473467979</v>
       </c>
       <c r="R25">
-        <v>126.620735425533</v>
+        <v>56.533261211811</v>
       </c>
       <c r="S25">
-        <v>0.002053847901703197</v>
+        <v>0.0009366932516412222</v>
       </c>
       <c r="T25">
-        <v>0.002053847901703197</v>
+        <v>0.0009366932516412225</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H26">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N26">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O26">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P26">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q26">
-        <v>35.20080736211833</v>
+        <v>62.278627157462</v>
       </c>
       <c r="R26">
-        <v>316.807266259065</v>
+        <v>560.5076444171581</v>
       </c>
       <c r="S26">
-        <v>0.005138762911649453</v>
+        <v>0.009286988168819477</v>
       </c>
       <c r="T26">
-        <v>0.005138762911649452</v>
+        <v>0.009286988168819477</v>
       </c>
     </row>
   </sheetData>
